--- a/notes/samplingtests2.xlsx
+++ b/notes/samplingtests2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>make_rng_mt</t>
   </si>
@@ -67,13 +67,25 @@
   </si>
   <si>
     <t>I don't trust that first pmap time.  not enough burn-in? another gc?  try changing the order of the functions</t>
+  </si>
+  <si>
+    <t>note the pmap time beat out mtf</t>
+  </si>
+  <si>
+    <t>note these mt times are a little faster than mtf</t>
+  </si>
+  <si>
+    <t>it's looking plausible that the difference between the rng's is too small to show up in results--the variations are due to other things</t>
+  </si>
+  <si>
+    <t>general notes:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +117,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,19 +142,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -482,9 +510,7 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
@@ -550,6 +576,9 @@
       <c r="D6">
         <v>11.9815842813333</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -564,6 +593,9 @@
       <c r="D7">
         <v>11.998411581333301</v>
       </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -678,6 +710,24 @@
       </c>
       <c r="D15">
         <v>12.0104035646666</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/notes/samplingtests2.xlsx
+++ b/notes/samplingtests2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="samplingtests2.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>make-rng-mt</t>
   </si>
@@ -83,12 +83,36 @@
   <si>
     <t>with pmap: mtf, sample-with-repl-3</t>
   </si>
+  <si>
+    <t>general notes</t>
+  </si>
+  <si>
+    <t>sample-with-repl-1: uses repeatedly with nth embedded in the repeated function</t>
+  </si>
+  <si>
+    <t>sample-with-repl-2: uses repeatedly feeding indexes into map, which calls nth</t>
+  </si>
+  <si>
+    <t>sample-with-repl-3: uses for over num-samples instances of a dummy var</t>
+  </si>
+  <si>
+    <t>sample-with-repl-4: uses loop/recur, doing the random index and nth in what's passed to the next iteration</t>
+  </si>
+  <si>
+    <t>it's wierd, though, that the second and third lines are so much larger</t>
+  </si>
+  <si>
+    <t>but not with the other sample functions</t>
+  </si>
+  <si>
+    <t>note with map, this is faster than mtf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +133,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,8 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -181,7 +223,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,13 +558,13 @@
   <dimension ref="A1:GJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
@@ -1747,7 +1791,9 @@
         <v>11.961106331333299</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1949,7 +1995,9 @@
         <v>11.9307457313333</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2151,7 +2199,9 @@
         <v>11.9245373813333</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5144,6 +5194,9 @@
       <c r="GJ23" s="8"/>
     </row>
     <row r="24" spans="1:192">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -5334,6 +5387,9 @@
       <c r="GJ24" s="8"/>
     </row>
     <row r="25" spans="1:192">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -5524,6 +5580,9 @@
       <c r="GJ25" s="8"/>
     </row>
     <row r="26" spans="1:192">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -5714,6 +5773,9 @@
       <c r="GJ26" s="8"/>
     </row>
     <row r="27" spans="1:192">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -5904,6 +5966,9 @@
       <c r="GJ27" s="8"/>
     </row>
     <row r="28" spans="1:192">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -8945,6 +9010,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
